--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl22-Ccr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl22-Ccr4.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.47465</v>
+        <v>1.119110666666667</v>
       </c>
       <c r="H2">
-        <v>1.42395</v>
+        <v>3.357332</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5726510027906514</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5726510027906513</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,54 +558,54 @@
         <v>0.26459</v>
       </c>
       <c r="O2">
-        <v>0.1669420747153959</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1669420747153959</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04186254783333333</v>
+        <v>0.0987018304311111</v>
       </c>
       <c r="R2">
-        <v>0.3767629305</v>
+        <v>0.8883164738799999</v>
       </c>
       <c r="S2">
-        <v>0.1669420747153959</v>
+        <v>0.5726510027906514</v>
       </c>
       <c r="T2">
-        <v>0.1669420747153959</v>
+        <v>0.5726510027906513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.47465</v>
+        <v>0.8351523333333333</v>
       </c>
       <c r="H3">
-        <v>1.42395</v>
+        <v>2.505457</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4273489972093487</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4273489972093487</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.4401103333333333</v>
+        <v>0.08819666666666666</v>
       </c>
       <c r="N3">
-        <v>1.320331</v>
+        <v>0.26459</v>
       </c>
       <c r="O3">
-        <v>0.8330579252846041</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.833057925284604</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2088983697166667</v>
+        <v>0.07365765195888888</v>
       </c>
       <c r="R3">
-        <v>1.88008532745</v>
+        <v>0.66291886763</v>
       </c>
       <c r="S3">
-        <v>0.8330579252846041</v>
+        <v>0.4273489972093487</v>
       </c>
       <c r="T3">
-        <v>0.833057925284604</v>
+        <v>0.4273489972093487</v>
       </c>
     </row>
   </sheetData>
